--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 6 (12, 18, 34, 42, 21)/MDD 9 (4, 32, 48, 44, 31)/ANN_128nodes_Uniform0.05Virtual_Control(12, 18, 34, 42, 21)_MDD(4, 32, 48, 44, 31)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9996869270327096</v>
+        <v>0.9972865504815053</v>
       </c>
       <c r="E2">
-        <v>0.9996869270327096</v>
+        <v>0.9972865504815053</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.09792209363654976</v>
+        <v>0.160986278550325</v>
       </c>
       <c r="E3">
-        <v>0.09792209363654976</v>
+        <v>0.160986278550325</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,13 +481,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0003119612338502322</v>
+        <v>0.9997263831940452</v>
       </c>
       <c r="E4">
-        <v>0.0003119612338502322</v>
+        <v>0.9997263831940452</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.195964680985683E-07</v>
+        <v>7.949644102596584E-15</v>
       </c>
       <c r="E5">
-        <v>1.195964680985683E-07</v>
+        <v>7.949644102596584E-15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>4.614163284371022E-16</v>
+        <v>0.08582694435864666</v>
       </c>
       <c r="E6">
-        <v>4.614163284371022E-16</v>
+        <v>0.08582694435864666</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05533695510514835</v>
+        <v>0.2305722876886664</v>
       </c>
       <c r="E7">
-        <v>0.9446630448948516</v>
+        <v>0.7694277123113337</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.902998742009094E-06</v>
+        <v>0.1140232415518011</v>
       </c>
       <c r="E8">
-        <v>0.999998097001258</v>
+        <v>0.8859767584481989</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0.02012415593063338</v>
+        <v>0.6259873946277311</v>
       </c>
       <c r="E10">
-        <v>0.9798758440693667</v>
+        <v>0.3740126053722689</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,13 +582,13 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9609602001963643</v>
+        <v>0.9766296727181878</v>
       </c>
       <c r="E11">
-        <v>0.0390397998036357</v>
+        <v>0.02337032728181221</v>
       </c>
       <c r="F11">
-        <v>2.8184494972229</v>
+        <v>1.850919723510742</v>
       </c>
       <c r="G11">
         <v>0.6</v>
